--- a/Data/KABSdata.xlsx
+++ b/Data/KABSdata.xlsx
@@ -13,205 +13,228 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t xml:space="preserve">Study line</t>
+  </si>
   <si>
     <t xml:space="preserve">KABS name</t>
   </si>
   <si>
-    <t xml:space="preserve">Study line</t>
-  </si>
-  <si>
-    <t>Tobias</t>
+    <t xml:space="preserve">C. Byggeteknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josefine Wibom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Bygningsdesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emilie Rønbøg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Bæredygtigt Energidesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustav Heron Melhus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Cyberteknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anders Strøbæk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Data Science og Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marika Norby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Design og Innovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophie Plougmand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Elektroteknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Fysik og Nanoteknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thor Deibert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. General Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Hjort Danielsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Geofysik og Rumteknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niels Boelt Mortensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Kemi &amp; Teknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August Johannsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Kunstig Intelligens og Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eske Haack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Life Science og Teknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnus Hilarious Ohlin Jepsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Matematik og Teknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lachlan Houston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Medicin og Teknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Weilsby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Miljøteknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liam Barbosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Produktion og Konstruktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frederik Jørgensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Softwareteknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helene Moesgaard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Arktisk Byggeri og Infrastruktur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah Ranzow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Byggeri og Infrastruktur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johan Rosenkrands,Theis Harbers Rix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Bygningsdesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobias Bæk</t>
   </si>
   <si>
     <t xml:space="preserve">D. Eksport og Teknologi</t>
   </si>
   <si>
-    <t>Høyrup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Kemi- og Bioteknik samt D. Kemiteknik og International Business</t>
-  </si>
-  <si>
-    <t>Springborg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Byggeteknologi</t>
-  </si>
-  <si>
-    <t>Liv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Process og Innovation, Produktion, Transport og Mobilitet</t>
-  </si>
-  <si>
-    <t>Otto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Vand, bioressourcer og miljømanagement</t>
-  </si>
-  <si>
-    <t>T-Dog</t>
+    <t xml:space="preserve">Hannah Leah Herlev Hvid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Elektrisk Energiteknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joakim Vestergaard Rasmussen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Elektroteknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Fiskeriteknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Fødevaresikkerhed og -kvalitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ea Quie Landgreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. IT og Økonomi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Nielsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. IT-elektronik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benedicte Jensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Kemi- og Bioteknik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malou Liv Enevoldsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Kemiteknik og International Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Maskinteknik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mads Kofod Egestad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Process og Innovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas Bennich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Produktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurits Jürs Hahn</t>
   </si>
   <si>
     <t xml:space="preserve">D. Softwareteknologi</t>
   </si>
   <si>
-    <t>Mimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. General Engineering</t>
-  </si>
-  <si>
-    <t>Silas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Maskinteknik</t>
-  </si>
-  <si>
-    <t>Xandra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Elektroteknologi samt C. Cyberteknologi</t>
-  </si>
-  <si>
-    <t>Ida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Bæredygtigt Energidesign</t>
-  </si>
-  <si>
-    <t>Koch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Byggeri og Infrastruktur &amp; D. Arktisk Byggeri og Infrastruktur</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Fødevaresikkerhed og -kvalitet samt D. Fiskeriteknologi</t>
-  </si>
-  <si>
-    <t>Adar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Medicin og Teknologi</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Life Science og Teknologi</t>
-  </si>
-  <si>
-    <t>Henny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Geofysik og Rumteknologi</t>
-  </si>
-  <si>
-    <t>Willer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Design og Innovation</t>
-  </si>
-  <si>
-    <t>Jönsson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Bygningsdesign</t>
-  </si>
-  <si>
-    <t>Isa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Kemi &amp; Teknologi</t>
-  </si>
-  <si>
-    <t>O-Dog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Kunstig Intelligens og Data</t>
-  </si>
-  <si>
-    <t>Signe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Sundhedsteknologi samt D. IT-elektronik (SUIT)</t>
-  </si>
-  <si>
-    <t>Sundin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. IT og Økonomi</t>
-  </si>
-  <si>
-    <t>Højlev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Bygningsdesign</t>
-  </si>
-  <si>
-    <t>Rie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Produktion og Konstruktion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Elektroteknologi samt D. Elektrisk Energiteknologi</t>
-  </si>
-  <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Fysik og Nanoteknologi</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Data Science og Management</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>Monica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Softwareteknologi</t>
-  </si>
-  <si>
-    <t>Christie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. Matematik og Teknologi</t>
+    <t xml:space="preserve">Oliver Sellberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Sundhedsteknologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Transport og Mobilitet</t>
+  </si>
+  <si>
+    <t>RUSTUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marilouise J. Arbøl Tofte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,9 +257,14 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,6 +777,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="34.57421875"/>
+    <col bestFit="1" min="2" max="2" width="32.421875"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="1" t="s">
@@ -811,47 +843,47 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25">
@@ -871,7 +903,7 @@
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -879,7 +911,7 @@
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -914,7 +946,7 @@
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -947,47 +979,47 @@
         <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="31" ht="14.25">
@@ -995,21 +1027,69 @@
         <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>